--- a/States_shapefile.xlsx
+++ b/States_shapefile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\mappy-maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED1B2B-AD19-40C8-A1AB-6C2FBF2B5C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE57E3A-AB73-417C-A88C-8DCFC3344928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="States_shapefile" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Database">States_shapefile!$A$1:$G$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,6 +41,9 @@
     <t>FID</t>
   </si>
   <si>
+    <t>TZ</t>
+  </si>
+  <si>
     <t>Program</t>
   </si>
   <si>
@@ -437,9 +453,6 @@
   </si>
   <si>
     <t>WYOMING</t>
-  </si>
-  <si>
-    <t>TZ</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1297,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,22 +1315,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,19 +1338,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>729</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>919</v>
@@ -1348,16 +1361,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>920</v>
@@ -1368,19 +1381,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>691</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>921</v>
@@ -1391,19 +1404,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>563</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>922</v>
@@ -1414,16 +1427,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-503</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1">
         <v>923</v>
@@ -1434,19 +1447,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>469</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>924</v>
@@ -1457,19 +1470,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>925</v>
@@ -1480,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>926</v>
@@ -1499,17 +1512,14 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>927</v>
@@ -1520,16 +1530,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1513</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>928</v>
@@ -1540,16 +1550,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1">
         <v>929</v>
@@ -1560,19 +1570,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
         <v>930</v>
@@ -1583,16 +1593,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>931</v>
@@ -1603,19 +1613,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>989</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <v>932</v>
@@ -1626,19 +1636,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1839</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
         <v>933</v>
@@ -1649,19 +1659,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
         <v>934</v>
@@ -1672,19 +1682,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
         <v>935</v>
@@ -1695,19 +1705,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.5</v>
+        <v>1524</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
         <v>936</v>
@@ -1718,16 +1728,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>681</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>937</v>
@@ -1738,19 +1748,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
         <v>938</v>
@@ -1761,16 +1771,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1">
         <v>939</v>
@@ -1781,19 +1791,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>940</v>
@@ -1804,16 +1814,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1167</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
         <v>941</v>
@@ -1824,19 +1834,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>496</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
         <v>942</v>
@@ -1847,19 +1857,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>482</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
         <v>943</v>
@@ -1870,19 +1880,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>931</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <v>944</v>
@@ -1893,19 +1903,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <v>945</v>
@@ -1916,19 +1926,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
         <v>946</v>
@@ -1939,19 +1949,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>947</v>
@@ -1962,19 +1972,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <v>948</v>
@@ -1985,19 +1995,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
         <v>949</v>
@@ -2008,16 +2018,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>694</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1">
         <v>950</v>
@@ -2028,19 +2038,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
         <v>951</v>
@@ -2051,16 +2061,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1330</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1">
         <v>952</v>
@@ -2071,16 +2081,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="1">
         <v>953</v>
@@ -2091,16 +2101,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>4730</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" s="1">
         <v>954</v>
@@ -2111,19 +2121,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>438</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1">
         <v>955</v>
@@ -2134,16 +2144,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="1">
         <v>956</v>
@@ -2154,19 +2164,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3179</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1">
         <v>957</v>
@@ -2177,16 +2187,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="1">
         <v>958</v>
@@ -2197,16 +2207,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>453</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="1">
         <v>959</v>
@@ -2217,16 +2227,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2.5</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1">
         <v>960</v>
@@ -2237,16 +2247,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1257</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" s="1">
         <v>961</v>
@@ -2257,19 +2267,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
         <v>962</v>
@@ -2280,16 +2290,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1">
         <v>963</v>
@@ -2300,16 +2310,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1">
         <v>964</v>
@@ -2320,16 +2330,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>890</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1">
         <v>965</v>
@@ -2340,19 +2350,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="1">
         <v>966</v>
@@ -2363,16 +2373,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>1023</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="1">
         <v>967</v>
@@ -2383,19 +2393,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>806</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <v>968</v>
@@ -2406,16 +2416,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="1">
         <v>969</v>
